--- a/src/InsiteCommerce.Web/ImportExport/SampleImports/SampleImport_Products.xlsx
+++ b/src/InsiteCommerce.Web/ImportExport/SampleImports/SampleImport_Products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Legacy\InSiteCommerce.Web\ImportExport\SampleImports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jofos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6773BE-0341-46D5-9A25-DF527997C92A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7D450A-676B-4182-8655-EBC19E878AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18150" windowHeight="7095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="149">
   <si>
     <t>required</t>
   </si>
@@ -466,10 +466,13 @@
     <t>BRAND1</t>
   </si>
   <si>
-    <t>Is Stocked</t>
-  </si>
-  <si>
     <t>Whether or not this item is regularly stocked at a local warehouse. Can be used as a facet on the storefront.</t>
+  </si>
+  <si>
+    <t>Stocked At Product Level</t>
+  </si>
+  <si>
+    <t>Stocked At Warehouse Level</t>
   </si>
 </sst>
 </file>
@@ -915,13 +918,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW7"/>
+  <dimension ref="A1:AX7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
+      <selection pane="bottomRight" activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,37 +945,37 @@
     <col min="15" max="15" width="10.85546875" style="3" customWidth="1"/>
     <col min="16" max="16" width="12.85546875" style="3" customWidth="1"/>
     <col min="17" max="17" width="12.140625" style="3" customWidth="1"/>
-    <col min="18" max="19" width="15.5703125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="16.140625" style="3" customWidth="1"/>
-    <col min="21" max="22" width="14.140625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="18.140625" style="3" customWidth="1"/>
-    <col min="24" max="25" width="11.5703125" style="3" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="3" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" style="3" customWidth="1"/>
-    <col min="29" max="29" width="18.7109375" style="3" customWidth="1"/>
-    <col min="30" max="30" width="18.42578125" style="3" customWidth="1"/>
-    <col min="31" max="31" width="16.140625" style="3" customWidth="1"/>
-    <col min="32" max="33" width="14.42578125" style="3" customWidth="1"/>
-    <col min="34" max="34" width="16.140625" style="3" customWidth="1"/>
-    <col min="35" max="35" width="14.140625" style="3" customWidth="1"/>
-    <col min="36" max="36" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.7109375" style="3" customWidth="1"/>
-    <col min="38" max="38" width="14.85546875" style="3" customWidth="1"/>
-    <col min="39" max="39" width="16.85546875" style="3" customWidth="1"/>
-    <col min="40" max="41" width="15.28515625" style="3" customWidth="1"/>
-    <col min="42" max="42" width="19" style="3" customWidth="1"/>
-    <col min="43" max="43" width="14.140625" style="3" customWidth="1"/>
-    <col min="44" max="44" width="15" style="3" customWidth="1"/>
-    <col min="45" max="45" width="15.5703125" style="3" customWidth="1"/>
-    <col min="46" max="46" width="12.140625" style="3" customWidth="1"/>
-    <col min="47" max="47" width="21.85546875" style="3" customWidth="1"/>
-    <col min="48" max="48" width="12.140625" style="3" customWidth="1"/>
-    <col min="49" max="49" width="23.7109375" style="3" customWidth="1"/>
-    <col min="50" max="16384" width="9.140625" style="3"/>
+    <col min="18" max="20" width="15.5703125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="16.140625" style="3" customWidth="1"/>
+    <col min="22" max="23" width="14.140625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="18.140625" style="3" customWidth="1"/>
+    <col min="25" max="26" width="11.5703125" style="3" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="3" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="3" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" style="3" customWidth="1"/>
+    <col min="30" max="30" width="18.7109375" style="3" customWidth="1"/>
+    <col min="31" max="31" width="18.42578125" style="3" customWidth="1"/>
+    <col min="32" max="32" width="16.140625" style="3" customWidth="1"/>
+    <col min="33" max="34" width="14.42578125" style="3" customWidth="1"/>
+    <col min="35" max="35" width="16.140625" style="3" customWidth="1"/>
+    <col min="36" max="36" width="14.140625" style="3" customWidth="1"/>
+    <col min="37" max="37" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.7109375" style="3" customWidth="1"/>
+    <col min="39" max="39" width="14.85546875" style="3" customWidth="1"/>
+    <col min="40" max="40" width="16.85546875" style="3" customWidth="1"/>
+    <col min="41" max="42" width="15.28515625" style="3" customWidth="1"/>
+    <col min="43" max="43" width="19" style="3" customWidth="1"/>
+    <col min="44" max="44" width="14.140625" style="3" customWidth="1"/>
+    <col min="45" max="45" width="15" style="3" customWidth="1"/>
+    <col min="46" max="46" width="15.5703125" style="3" customWidth="1"/>
+    <col min="47" max="47" width="12.140625" style="3" customWidth="1"/>
+    <col min="48" max="48" width="21.85546875" style="3" customWidth="1"/>
+    <col min="49" max="49" width="12.140625" style="3" customWidth="1"/>
+    <col min="50" max="50" width="23.7109375" style="3" customWidth="1"/>
+    <col min="51" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
@@ -1028,100 +1031,103 @@
         <v>97</v>
       </c>
       <c r="S1" t="s">
-        <v>146</v>
-      </c>
-      <c r="T1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="T1" t="s">
+        <v>148</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AH1" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:49" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1210,26 +1216,26 @@
         <v>13</v>
       </c>
       <c r="AD2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AE2" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="AF2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AG2" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="AH2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="AI2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AJ2" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="AK2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1269,8 +1275,11 @@
       <c r="AW2" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="AX2" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:49" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1294,7 +1303,7 @@
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
-      <c r="T3" s="11"/>
+      <c r="T3" s="10"/>
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
@@ -1303,45 +1312,46 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
       <c r="AB3" s="11"/>
-      <c r="AC3" s="5" t="s">
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
-      <c r="AH3" s="8" t="s">
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="7" t="s">
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AK3" s="12" t="s">
+      <c r="AL3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="12"/>
       <c r="AM3" s="12"/>
       <c r="AN3" s="12"/>
-      <c r="AO3" s="13" t="s">
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AP3" s="5" t="s">
+      <c r="AQ3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="4" t="s">
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="4"/>
-      <c r="AT3" s="9" t="s">
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AU3" s="9"/>
       <c r="AV3" s="9"/>
       <c r="AW3" s="9"/>
+      <c r="AX3" s="9"/>
     </row>
-    <row r="4" spans="1:49" ht="270" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" ht="270" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1397,100 +1407,101 @@
         <v>30</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="T4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="T4" s="15"/>
+      <c r="U4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="X4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AM4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AO4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="AP4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AP4" s="3" t="s">
+      <c r="AQ4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AR4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AS4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AT4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AU4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AV4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AV4" s="3" t="s">
+      <c r="AW4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AW4" s="3" t="s">
+      <c r="AX4" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:49" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>53</v>
       </c>
@@ -1515,56 +1526,56 @@
       <c r="O5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="Y5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Z5" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AD5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AE5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AF5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AF5" s="3" t="s">
+      <c r="AG5" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="AI5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AK5" s="3" t="s">
+      <c r="AJ5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AO5" s="3" t="s">
+      <c r="AP5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AR5" s="3" t="s">
+      <c r="AS5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AS5" s="3" t="s">
+      <c r="AT5" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AT5" s="3" t="s">
+      <c r="AU5" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AU5" s="3" t="s">
+      <c r="AV5" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:49" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>54</v>
       </c>
@@ -1583,35 +1594,35 @@
       <c r="O6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AE6" s="3" t="s">
+      <c r="AF6" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="AI6" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AJ6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AL6" s="3" t="s">
+      <c r="AM6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AM6" s="3" t="s">
+      <c r="AN6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AN6" s="3" t="s">
+      <c r="AO6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AP6" s="3" t="s">
+      <c r="AQ6" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AQ6" s="3" t="s">
+      <c r="AR6" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:49" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>55</v>
       </c>
@@ -1630,31 +1641,31 @@
       <c r="O7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AE7" s="3" t="s">
+      <c r="AF7" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="AI7" s="3" t="s">
         <v>70</v>
       </c>
       <c r="AJ7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AL7" s="3" t="s">
+      <c r="AM7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AM7" s="3" t="s">
+      <c r="AN7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AN7" s="3" t="s">
+      <c r="AO7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AP7" s="3" t="s">
+      <c r="AQ7" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AQ7" s="3" t="s">
+      <c r="AR7" s="3" t="s">
         <v>79</v>
       </c>
     </row>
